--- a/MyRevitAddins/PDFExporter/Papirstørrelser.xlsx
+++ b/MyRevitAddins/PDFExporter/Papirstørrelser.xlsx
@@ -498,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:H23"/>
+    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14:J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,17 +726,6 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N13">
-        <v>297</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>297</v>
-      </c>
-    </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>1</v>
@@ -751,28 +740,27 @@
         <v>210</v>
       </c>
       <c r="H14" t="str">
-        <f>D14&amp;"x"&amp;E14&amp;"_("&amp;G14&amp;"x"&amp;F14&amp;")_MM"</f>
-        <v>1x1_(210x297)_MM</v>
+        <f>D14&amp;"x"&amp;E14&amp;"_("&amp;F14&amp;"x"&amp;G14&amp;")_MM"</f>
+        <v>1x1_(297x210)_MM</v>
       </c>
       <c r="I14" t="str">
         <f>"{ "&amp;G14&amp;", """&amp;H14&amp;"""},"</f>
-        <v>{ 210, "1x1_(210x297)_MM"},</v>
+        <v>{ 210, "1x1_(297x210)_MM"},</v>
       </c>
       <c r="J14" t="str">
-        <f>"&lt;Page&gt;&lt;Name&gt;"&amp;H14&amp;"&lt;/Name&gt;&lt;Height&gt;"&amp;ROUNDDOWN(G14*$J$6,0)&amp;"&lt;/Height&gt;&lt;Width&gt;"&amp;ROUNDDOWN(F14*$J$6,0)&amp;"&lt;/Width&gt;&lt;/Page&gt;"</f>
-        <v>&lt;Page&gt;&lt;Name&gt;1x1_(210x297)_MM&lt;/Name&gt;&lt;Height&gt;826&lt;/Height&gt;&lt;Width&gt;1169&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f>"  &lt;Page&gt;
+    &lt;Name&gt;"&amp;H14&amp;"&lt;/Name&gt;
+    &lt;Height&gt;"&amp;ROUNDDOWN(G14*$J$6,0)&amp;"&lt;/Height&gt;
+    &lt;Width&gt;"&amp;ROUNDDOWN(F14*$J$6,0)&amp;"&lt;/Width&gt;
+  &lt;/Page&gt;"</f>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;1x1_(297x210)_MM&lt;/Name&gt;
+    &lt;Height&gt;826&lt;/Height&gt;
+    &lt;Width&gt;1169&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K14" t="s">
         <v>3</v>
-      </c>
-      <c r="N14">
-        <v>445.5</v>
-      </c>
-      <c r="O14">
-        <v>1.5</v>
-      </c>
-      <c r="P14">
-        <v>445.5</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -789,28 +777,27 @@
         <v>420</v>
       </c>
       <c r="H15" t="str">
-        <f>D15&amp;"x"&amp;E15&amp;"_("&amp;G15&amp;"x"&amp;F15&amp;")_MM"</f>
-        <v>1x2_(420x297)_MM</v>
+        <f t="shared" ref="H15:H53" si="0">D15&amp;"x"&amp;E15&amp;"_("&amp;F15&amp;"x"&amp;G15&amp;")_MM"</f>
+        <v>1x2_(297x420)_MM</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" ref="I15:I23" si="0">"{ "&amp;G15&amp;", """&amp;H15&amp;"""},"</f>
-        <v>{ 420, "1x2_(420x297)_MM"},</v>
+        <f t="shared" ref="I15:I23" si="1">"{ "&amp;G15&amp;", """&amp;H15&amp;"""},"</f>
+        <v>{ 420, "1x2_(297x420)_MM"},</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" ref="J15:J23" si="1">"&lt;Page&gt;&lt;Name&gt;"&amp;H15&amp;"&lt;/Name&gt;&lt;Height&gt;"&amp;ROUNDDOWN(G15*$J$6,0)&amp;"&lt;/Height&gt;&lt;Width&gt;"&amp;ROUNDDOWN(F15*$J$6,0)&amp;"&lt;/Width&gt;&lt;/Page&gt;"</f>
-        <v>&lt;Page&gt;&lt;Name&gt;1x2_(420x297)_MM&lt;/Name&gt;&lt;Height&gt;1653&lt;/Height&gt;&lt;Width&gt;1169&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" ref="J15:J53" si="2">"  &lt;Page&gt;
+    &lt;Name&gt;"&amp;H15&amp;"&lt;/Name&gt;
+    &lt;Height&gt;"&amp;ROUNDDOWN(G15*$J$6,0)&amp;"&lt;/Height&gt;
+    &lt;Width&gt;"&amp;ROUNDDOWN(F15*$J$6,0)&amp;"&lt;/Width&gt;
+  &lt;/Page&gt;"</f>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;1x2_(297x420)_MM&lt;/Name&gt;
+    &lt;Height&gt;1653&lt;/Height&gt;
+    &lt;Width&gt;1169&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K15" t="s">
         <v>4</v>
-      </c>
-      <c r="N15">
-        <v>594</v>
-      </c>
-      <c r="O15">
-        <v>2</v>
-      </c>
-      <c r="P15">
-        <v>594</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -827,28 +814,23 @@
         <v>630</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" ref="H16:H23" si="2">D16&amp;"x"&amp;E16&amp;"_("&amp;G16&amp;"x"&amp;F16&amp;")_MM"</f>
-        <v>1x3_(630x297)_MM</v>
+        <f t="shared" si="0"/>
+        <v>1x3_(297x630)_MM</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="0"/>
-        <v>{ 630, "1x3_(630x297)_MM"},</v>
+        <f t="shared" si="1"/>
+        <v>{ 630, "1x3_(297x630)_MM"},</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Page&gt;&lt;Name&gt;1x3_(630x297)_MM&lt;/Name&gt;&lt;Height&gt;2480&lt;/Height&gt;&lt;Width&gt;1169&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;1x3_(297x630)_MM&lt;/Name&gt;
+    &lt;Height&gt;2480&lt;/Height&gt;
+    &lt;Width&gt;1169&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K16" t="s">
         <v>5</v>
-      </c>
-      <c r="N16">
-        <v>891</v>
-      </c>
-      <c r="O16">
-        <v>3</v>
-      </c>
-      <c r="P16">
-        <v>891</v>
       </c>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.25">
@@ -865,16 +847,20 @@
         <v>840</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="2"/>
-        <v>1x4_(840x297)_MM</v>
+        <f t="shared" si="0"/>
+        <v>1x4_(297x840)_MM</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="0"/>
-        <v>{ 840, "1x4_(840x297)_MM"},</v>
+        <f t="shared" si="1"/>
+        <v>{ 840, "1x4_(297x840)_MM"},</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Page&gt;&lt;Name&gt;1x4_(840x297)_MM&lt;/Name&gt;&lt;Height&gt;3307&lt;/Height&gt;&lt;Width&gt;1169&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;1x4_(297x840)_MM&lt;/Name&gt;
+    &lt;Height&gt;3307&lt;/Height&gt;
+    &lt;Width&gt;1169&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K17" t="s">
         <v>6</v>
@@ -894,16 +880,20 @@
         <v>1050</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="2"/>
-        <v>1x5_(1050x297)_MM</v>
+        <f t="shared" si="0"/>
+        <v>1x5_(297x1050)_MM</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="0"/>
-        <v>{ 1050, "1x5_(1050x297)_MM"},</v>
+        <f t="shared" si="1"/>
+        <v>{ 1050, "1x5_(297x1050)_MM"},</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Page&gt;&lt;Name&gt;1x5_(1050x297)_MM&lt;/Name&gt;&lt;Height&gt;4133&lt;/Height&gt;&lt;Width&gt;1169&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;1x5_(297x1050)_MM&lt;/Name&gt;
+    &lt;Height&gt;4133&lt;/Height&gt;
+    &lt;Width&gt;1169&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K18" t="s">
         <v>7</v>
@@ -923,16 +913,20 @@
         <v>1260</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="2"/>
-        <v>1x6_(1260x297)_MM</v>
+        <f t="shared" si="0"/>
+        <v>1x6_(297x1260)_MM</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="0"/>
-        <v>{ 1260, "1x6_(1260x297)_MM"},</v>
+        <f t="shared" si="1"/>
+        <v>{ 1260, "1x6_(297x1260)_MM"},</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Page&gt;&lt;Name&gt;1x6_(1260x297)_MM&lt;/Name&gt;&lt;Height&gt;4960&lt;/Height&gt;&lt;Width&gt;1169&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;1x6_(297x1260)_MM&lt;/Name&gt;
+    &lt;Height&gt;4960&lt;/Height&gt;
+    &lt;Width&gt;1169&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K19" t="s">
         <v>8</v>
@@ -952,16 +946,20 @@
         <v>1470</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="2"/>
-        <v>1x7_(1470x297)_MM</v>
+        <f t="shared" si="0"/>
+        <v>1x7_(297x1470)_MM</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="0"/>
-        <v>{ 1470, "1x7_(1470x297)_MM"},</v>
+        <f t="shared" si="1"/>
+        <v>{ 1470, "1x7_(297x1470)_MM"},</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Page&gt;&lt;Name&gt;1x7_(1470x297)_MM&lt;/Name&gt;&lt;Height&gt;5787&lt;/Height&gt;&lt;Width&gt;1169&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;1x7_(297x1470)_MM&lt;/Name&gt;
+    &lt;Height&gt;5787&lt;/Height&gt;
+    &lt;Width&gt;1169&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K20" t="s">
         <v>9</v>
@@ -981,16 +979,20 @@
         <v>1680</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="2"/>
-        <v>1x8_(1680x297)_MM</v>
+        <f t="shared" si="0"/>
+        <v>1x8_(297x1680)_MM</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="0"/>
-        <v>{ 1680, "1x8_(1680x297)_MM"},</v>
+        <f t="shared" si="1"/>
+        <v>{ 1680, "1x8_(297x1680)_MM"},</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Page&gt;&lt;Name&gt;1x8_(1680x297)_MM&lt;/Name&gt;&lt;Height&gt;6614&lt;/Height&gt;&lt;Width&gt;1169&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;1x8_(297x1680)_MM&lt;/Name&gt;
+    &lt;Height&gt;6614&lt;/Height&gt;
+    &lt;Width&gt;1169&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K21" t="s">
         <v>10</v>
@@ -1010,16 +1012,20 @@
         <v>1890</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="2"/>
-        <v>1x9_(1890x297)_MM</v>
+        <f t="shared" si="0"/>
+        <v>1x9_(297x1890)_MM</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="0"/>
-        <v>{ 1890, "1x9_(1890x297)_MM"},</v>
+        <f t="shared" si="1"/>
+        <v>{ 1890, "1x9_(297x1890)_MM"},</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Page&gt;&lt;Name&gt;1x9_(1890x297)_MM&lt;/Name&gt;&lt;Height&gt;7440&lt;/Height&gt;&lt;Width&gt;1169&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;1x9_(297x1890)_MM&lt;/Name&gt;
+    &lt;Height&gt;7440&lt;/Height&gt;
+    &lt;Width&gt;1169&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K22" t="s">
         <v>11</v>
@@ -1039,16 +1045,20 @@
         <v>2100</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="2"/>
-        <v>1x10_(2100x297)_MM</v>
+        <f t="shared" si="0"/>
+        <v>1x10_(297x2100)_MM</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="0"/>
-        <v>{ 2100, "1x10_(2100x297)_MM"},</v>
+        <f t="shared" si="1"/>
+        <v>{ 2100, "1x10_(297x2100)_MM"},</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Page&gt;&lt;Name&gt;1x10_(2100x297)_MM&lt;/Name&gt;&lt;Height&gt;8267&lt;/Height&gt;&lt;Width&gt;1169&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;1x10_(297x2100)_MM&lt;/Name&gt;
+    &lt;Height&gt;8267&lt;/Height&gt;
+    &lt;Width&gt;1169&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K23" t="s">
         <v>12</v>
@@ -1068,12 +1078,16 @@
         <v>210</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" ref="H15:H53" si="3">D24&amp;"x"&amp;E24&amp;"_("&amp;F24&amp;"x"&amp;G24&amp;")_MM"</f>
+        <f t="shared" si="0"/>
         <v>1,5x1_(446x210)_MM</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" ref="J15:J56" si="4">"&lt;Page&gt;&lt;Name&gt;"&amp;H24&amp;"&lt;/Name&gt;&lt;Height&gt;"&amp;ROUNDDOWN(G24*$J$6,0)&amp;"&lt;/Height&gt;&lt;Width&gt;"&amp;ROUNDDOWN(F24*$J$6,0)&amp;"&lt;/Width&gt;&lt;/Page&gt;"</f>
-        <v>&lt;Page&gt;&lt;Name&gt;1,5x1_(446x210)_MM&lt;/Name&gt;&lt;Height&gt;826&lt;/Height&gt;&lt;Width&gt;1755&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;1,5x1_(446x210)_MM&lt;/Name&gt;
+    &lt;Height&gt;826&lt;/Height&gt;
+    &lt;Width&gt;1755&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K24" t="s">
         <v>13</v>
@@ -1093,12 +1107,16 @@
         <v>420</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1,5x2_(446x420)_MM</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Page&gt;&lt;Name&gt;1,5x2_(446x420)_MM&lt;/Name&gt;&lt;Height&gt;1653&lt;/Height&gt;&lt;Width&gt;1755&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;1,5x2_(446x420)_MM&lt;/Name&gt;
+    &lt;Height&gt;1653&lt;/Height&gt;
+    &lt;Width&gt;1755&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K25" t="s">
         <v>14</v>
@@ -1118,12 +1136,16 @@
         <v>630</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1,5x3_(446x630)_MM</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Page&gt;&lt;Name&gt;1,5x3_(446x630)_MM&lt;/Name&gt;&lt;Height&gt;2480&lt;/Height&gt;&lt;Width&gt;1755&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;1,5x3_(446x630)_MM&lt;/Name&gt;
+    &lt;Height&gt;2480&lt;/Height&gt;
+    &lt;Width&gt;1755&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K26" t="s">
         <v>15</v>
@@ -1143,12 +1165,16 @@
         <v>840</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1,5x4_(446x840)_MM</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Page&gt;&lt;Name&gt;1,5x4_(446x840)_MM&lt;/Name&gt;&lt;Height&gt;3307&lt;/Height&gt;&lt;Width&gt;1755&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;1,5x4_(446x840)_MM&lt;/Name&gt;
+    &lt;Height&gt;3307&lt;/Height&gt;
+    &lt;Width&gt;1755&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K27" t="s">
         <v>16</v>
@@ -1168,12 +1194,16 @@
         <v>1050</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1,5x5_(446x1050)_MM</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Page&gt;&lt;Name&gt;1,5x5_(446x1050)_MM&lt;/Name&gt;&lt;Height&gt;4133&lt;/Height&gt;&lt;Width&gt;1755&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;1,5x5_(446x1050)_MM&lt;/Name&gt;
+    &lt;Height&gt;4133&lt;/Height&gt;
+    &lt;Width&gt;1755&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K28" t="s">
         <v>17</v>
@@ -1193,12 +1223,16 @@
         <v>1260</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1,5x6_(446x1260)_MM</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Page&gt;&lt;Name&gt;1,5x6_(446x1260)_MM&lt;/Name&gt;&lt;Height&gt;4960&lt;/Height&gt;&lt;Width&gt;1755&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;1,5x6_(446x1260)_MM&lt;/Name&gt;
+    &lt;Height&gt;4960&lt;/Height&gt;
+    &lt;Width&gt;1755&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K29" t="s">
         <v>18</v>
@@ -1218,12 +1252,16 @@
         <v>1470</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1,5x7_(446x1470)_MM</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Page&gt;&lt;Name&gt;1,5x7_(446x1470)_MM&lt;/Name&gt;&lt;Height&gt;5787&lt;/Height&gt;&lt;Width&gt;1755&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;1,5x7_(446x1470)_MM&lt;/Name&gt;
+    &lt;Height&gt;5787&lt;/Height&gt;
+    &lt;Width&gt;1755&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K30" t="s">
         <v>19</v>
@@ -1243,12 +1281,16 @@
         <v>1680</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1,5x8_(446x1680)_MM</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Page&gt;&lt;Name&gt;1,5x8_(446x1680)_MM&lt;/Name&gt;&lt;Height&gt;6614&lt;/Height&gt;&lt;Width&gt;1755&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;1,5x8_(446x1680)_MM&lt;/Name&gt;
+    &lt;Height&gt;6614&lt;/Height&gt;
+    &lt;Width&gt;1755&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K31" t="s">
         <v>20</v>
@@ -1268,12 +1310,16 @@
         <v>1890</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1,5x9_(446x1890)_MM</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Page&gt;&lt;Name&gt;1,5x9_(446x1890)_MM&lt;/Name&gt;&lt;Height&gt;7440&lt;/Height&gt;&lt;Width&gt;1755&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;1,5x9_(446x1890)_MM&lt;/Name&gt;
+    &lt;Height&gt;7440&lt;/Height&gt;
+    &lt;Width&gt;1755&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K32" t="s">
         <v>21</v>
@@ -1293,12 +1339,16 @@
         <v>2100</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1,5x10_(446x2100)_MM</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Page&gt;&lt;Name&gt;1,5x10_(446x2100)_MM&lt;/Name&gt;&lt;Height&gt;8267&lt;/Height&gt;&lt;Width&gt;1755&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;1,5x10_(446x2100)_MM&lt;/Name&gt;
+    &lt;Height&gt;8267&lt;/Height&gt;
+    &lt;Width&gt;1755&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K33" t="s">
         <v>22</v>
@@ -1318,12 +1368,16 @@
         <v>210</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2x1_(594x210)_MM</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Page&gt;&lt;Name&gt;2x1_(594x210)_MM&lt;/Name&gt;&lt;Height&gt;826&lt;/Height&gt;&lt;Width&gt;2338&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;2x1_(594x210)_MM&lt;/Name&gt;
+    &lt;Height&gt;826&lt;/Height&gt;
+    &lt;Width&gt;2338&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K34" t="s">
         <v>23</v>
@@ -1343,12 +1397,16 @@
         <v>420</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2x2_(594x420)_MM</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Page&gt;&lt;Name&gt;2x2_(594x420)_MM&lt;/Name&gt;&lt;Height&gt;1653&lt;/Height&gt;&lt;Width&gt;2338&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;2x2_(594x420)_MM&lt;/Name&gt;
+    &lt;Height&gt;1653&lt;/Height&gt;
+    &lt;Width&gt;2338&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K35" t="s">
         <v>24</v>
@@ -1368,12 +1426,16 @@
         <v>630</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2x3_(594x630)_MM</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Page&gt;&lt;Name&gt;2x3_(594x630)_MM&lt;/Name&gt;&lt;Height&gt;2480&lt;/Height&gt;&lt;Width&gt;2338&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;2x3_(594x630)_MM&lt;/Name&gt;
+    &lt;Height&gt;2480&lt;/Height&gt;
+    &lt;Width&gt;2338&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K36" t="s">
         <v>25</v>
@@ -1393,12 +1455,16 @@
         <v>840</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2x4_(594x840)_MM</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Page&gt;&lt;Name&gt;2x4_(594x840)_MM&lt;/Name&gt;&lt;Height&gt;3307&lt;/Height&gt;&lt;Width&gt;2338&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;2x4_(594x840)_MM&lt;/Name&gt;
+    &lt;Height&gt;3307&lt;/Height&gt;
+    &lt;Width&gt;2338&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K37" t="s">
         <v>26</v>
@@ -1418,12 +1484,16 @@
         <v>1050</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2x5_(594x1050)_MM</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Page&gt;&lt;Name&gt;2x5_(594x1050)_MM&lt;/Name&gt;&lt;Height&gt;4133&lt;/Height&gt;&lt;Width&gt;2338&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;2x5_(594x1050)_MM&lt;/Name&gt;
+    &lt;Height&gt;4133&lt;/Height&gt;
+    &lt;Width&gt;2338&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K38" t="s">
         <v>27</v>
@@ -1443,12 +1513,16 @@
         <v>1260</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2x6_(594x1260)_MM</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Page&gt;&lt;Name&gt;2x6_(594x1260)_MM&lt;/Name&gt;&lt;Height&gt;4960&lt;/Height&gt;&lt;Width&gt;2338&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;2x6_(594x1260)_MM&lt;/Name&gt;
+    &lt;Height&gt;4960&lt;/Height&gt;
+    &lt;Width&gt;2338&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K39" t="s">
         <v>28</v>
@@ -1468,12 +1542,16 @@
         <v>1470</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2x7_(594x1470)_MM</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Page&gt;&lt;Name&gt;2x7_(594x1470)_MM&lt;/Name&gt;&lt;Height&gt;5787&lt;/Height&gt;&lt;Width&gt;2338&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;2x7_(594x1470)_MM&lt;/Name&gt;
+    &lt;Height&gt;5787&lt;/Height&gt;
+    &lt;Width&gt;2338&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K40" t="s">
         <v>29</v>
@@ -1493,12 +1571,16 @@
         <v>1680</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2x8_(594x1680)_MM</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Page&gt;&lt;Name&gt;2x8_(594x1680)_MM&lt;/Name&gt;&lt;Height&gt;6614&lt;/Height&gt;&lt;Width&gt;2338&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;2x8_(594x1680)_MM&lt;/Name&gt;
+    &lt;Height&gt;6614&lt;/Height&gt;
+    &lt;Width&gt;2338&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K41" t="s">
         <v>30</v>
@@ -1518,12 +1600,16 @@
         <v>1890</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2x9_(594x1890)_MM</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Page&gt;&lt;Name&gt;2x9_(594x1890)_MM&lt;/Name&gt;&lt;Height&gt;7440&lt;/Height&gt;&lt;Width&gt;2338&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;2x9_(594x1890)_MM&lt;/Name&gt;
+    &lt;Height&gt;7440&lt;/Height&gt;
+    &lt;Width&gt;2338&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K42" t="s">
         <v>31</v>
@@ -1543,12 +1629,16 @@
         <v>2100</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2x10_(594x2100)_MM</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Page&gt;&lt;Name&gt;2x10_(594x2100)_MM&lt;/Name&gt;&lt;Height&gt;8267&lt;/Height&gt;&lt;Width&gt;2338&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;2x10_(594x2100)_MM&lt;/Name&gt;
+    &lt;Height&gt;8267&lt;/Height&gt;
+    &lt;Width&gt;2338&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K43" t="s">
         <v>32</v>
@@ -1568,12 +1658,16 @@
         <v>210</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3x1_(891x210)_MM</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Page&gt;&lt;Name&gt;3x1_(891x210)_MM&lt;/Name&gt;&lt;Height&gt;826&lt;/Height&gt;&lt;Width&gt;3507&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;3x1_(891x210)_MM&lt;/Name&gt;
+    &lt;Height&gt;826&lt;/Height&gt;
+    &lt;Width&gt;3507&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K44" t="s">
         <v>33</v>
@@ -1593,12 +1687,16 @@
         <v>420</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3x2_(891x420)_MM</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Page&gt;&lt;Name&gt;3x2_(891x420)_MM&lt;/Name&gt;&lt;Height&gt;1653&lt;/Height&gt;&lt;Width&gt;3507&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;3x2_(891x420)_MM&lt;/Name&gt;
+    &lt;Height&gt;1653&lt;/Height&gt;
+    &lt;Width&gt;3507&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K45" t="s">
         <v>34</v>
@@ -1618,12 +1716,16 @@
         <v>630</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3x3_(891x630)_MM</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Page&gt;&lt;Name&gt;3x3_(891x630)_MM&lt;/Name&gt;&lt;Height&gt;2480&lt;/Height&gt;&lt;Width&gt;3507&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;3x3_(891x630)_MM&lt;/Name&gt;
+    &lt;Height&gt;2480&lt;/Height&gt;
+    &lt;Width&gt;3507&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K46" t="s">
         <v>35</v>
@@ -1643,12 +1745,16 @@
         <v>840</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3x4_(891x840)_MM</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Page&gt;&lt;Name&gt;3x4_(891x840)_MM&lt;/Name&gt;&lt;Height&gt;3307&lt;/Height&gt;&lt;Width&gt;3507&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;3x4_(891x840)_MM&lt;/Name&gt;
+    &lt;Height&gt;3307&lt;/Height&gt;
+    &lt;Width&gt;3507&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K47" t="s">
         <v>36</v>
@@ -1668,12 +1774,16 @@
         <v>1050</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3x5_(891x1050)_MM</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Page&gt;&lt;Name&gt;3x5_(891x1050)_MM&lt;/Name&gt;&lt;Height&gt;4133&lt;/Height&gt;&lt;Width&gt;3507&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;3x5_(891x1050)_MM&lt;/Name&gt;
+    &lt;Height&gt;4133&lt;/Height&gt;
+    &lt;Width&gt;3507&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K48" t="s">
         <v>37</v>
@@ -1693,12 +1803,16 @@
         <v>1260</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3x6_(891x1260)_MM</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Page&gt;&lt;Name&gt;3x6_(891x1260)_MM&lt;/Name&gt;&lt;Height&gt;4960&lt;/Height&gt;&lt;Width&gt;3507&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;3x6_(891x1260)_MM&lt;/Name&gt;
+    &lt;Height&gt;4960&lt;/Height&gt;
+    &lt;Width&gt;3507&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K49" t="s">
         <v>38</v>
@@ -1718,12 +1832,16 @@
         <v>1470</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3x7_(891x1470)_MM</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Page&gt;&lt;Name&gt;3x7_(891x1470)_MM&lt;/Name&gt;&lt;Height&gt;5787&lt;/Height&gt;&lt;Width&gt;3507&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;3x7_(891x1470)_MM&lt;/Name&gt;
+    &lt;Height&gt;5787&lt;/Height&gt;
+    &lt;Width&gt;3507&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K50" t="s">
         <v>39</v>
@@ -1743,12 +1861,16 @@
         <v>1680</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3x8_(891x1680)_MM</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Page&gt;&lt;Name&gt;3x8_(891x1680)_MM&lt;/Name&gt;&lt;Height&gt;6614&lt;/Height&gt;&lt;Width&gt;3507&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;3x8_(891x1680)_MM&lt;/Name&gt;
+    &lt;Height&gt;6614&lt;/Height&gt;
+    &lt;Width&gt;3507&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K51" t="s">
         <v>40</v>
@@ -1768,12 +1890,16 @@
         <v>1890</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3x9_(891x1890)_MM</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Page&gt;&lt;Name&gt;3x9_(891x1890)_MM&lt;/Name&gt;&lt;Height&gt;7440&lt;/Height&gt;&lt;Width&gt;3507&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;3x9_(891x1890)_MM&lt;/Name&gt;
+    &lt;Height&gt;7440&lt;/Height&gt;
+    &lt;Width&gt;3507&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K52" t="s">
         <v>41</v>
@@ -1793,12 +1919,16 @@
         <v>2100</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3x10_(891x2100)_MM</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Page&gt;&lt;Name&gt;3x10_(891x2100)_MM&lt;/Name&gt;&lt;Height&gt;8267&lt;/Height&gt;&lt;Width&gt;3507&lt;/Width&gt;&lt;/Page&gt;</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  &lt;Page&gt;
+    &lt;Name&gt;3x10_(891x2100)_MM&lt;/Name&gt;
+    &lt;Height&gt;8267&lt;/Height&gt;
+    &lt;Width&gt;3507&lt;/Width&gt;
+  &lt;/Page&gt;</v>
       </c>
       <c r="K53" t="s">
         <v>42</v>
@@ -1815,7 +1945,7 @@
         <v>43</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="J15:J56" si="3">"&lt;Page&gt;&lt;Name&gt;"&amp;H54&amp;"&lt;/Name&gt;&lt;Height&gt;"&amp;ROUNDDOWN(G54*$J$6,0)&amp;"&lt;/Height&gt;&lt;Width&gt;"&amp;ROUNDDOWN(F54*$J$6,0)&amp;"&lt;/Width&gt;&lt;/Page&gt;"</f>
         <v>&lt;Page&gt;&lt;Name&gt;A2_(594x420)_MM&lt;/Name&gt;&lt;Height&gt;1653&lt;/Height&gt;&lt;Width&gt;2338&lt;/Width&gt;&lt;/Page&gt;</v>
       </c>
     </row>
@@ -1830,7 +1960,7 @@
         <v>44</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>&lt;Page&gt;&lt;Name&gt;A1_(841x594)_MM&lt;/Name&gt;&lt;Height&gt;2338&lt;/Height&gt;&lt;Width&gt;3311&lt;/Width&gt;&lt;/Page&gt;</v>
       </c>
     </row>
@@ -1845,7 +1975,7 @@
         <v>45</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>&lt;Page&gt;&lt;Name&gt;A0_(1189x841)_MM&lt;/Name&gt;&lt;Height&gt;3311&lt;/Height&gt;&lt;Width&gt;4681&lt;/Width&gt;&lt;/Page&gt;</v>
       </c>
     </row>
